--- a/LichThi2_554.xlsx
+++ b/LichThi2_554.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam3\Do_An\Tri_Tue_Nhan_Tao\XepLichGacThi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC3B0D8-C596-461B-98F4-2DB5A12D039E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C525B4C-D14A-4259-969F-106983727794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>5 → 6</t>
-  </si>
-  <si>
-    <t>TP. HCM, ngày 03 tháng 06 năm 2024</t>
   </si>
   <si>
     <t>Thứ</t>
@@ -351,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -380,9 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -392,7 +386,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -404,10 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,13 +919,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:EX11"/>
+  <dimension ref="A5:EX9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="EC10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="ED13" sqref="ED13"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,26 +1074,26 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:154" x14ac:dyDescent="0.3">
-      <c r="I5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="I5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
     </row>
     <row r="6" spans="1:154" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1179,583 +1173,583 @@
       <c r="BJ6" s="18"/>
       <c r="BK6" s="18"/>
       <c r="BL6" s="19"/>
-      <c r="BM6" s="13">
+      <c r="BM6" s="12">
         <v>45606</v>
       </c>
-      <c r="BN6" s="14"/>
-      <c r="BO6" s="14"/>
-      <c r="BP6" s="14"/>
-      <c r="BQ6" s="14"/>
-      <c r="BR6" s="15"/>
-      <c r="BS6" s="13">
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BQ6" s="13"/>
+      <c r="BR6" s="14"/>
+      <c r="BS6" s="12">
         <v>45607</v>
       </c>
-      <c r="BT6" s="14"/>
-      <c r="BU6" s="14"/>
-      <c r="BV6" s="14"/>
-      <c r="BW6" s="14"/>
-      <c r="BX6" s="14"/>
-      <c r="BY6" s="14"/>
-      <c r="BZ6" s="14"/>
-      <c r="CA6" s="14"/>
-      <c r="CB6" s="15"/>
-      <c r="CC6" s="13">
+      <c r="BT6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BV6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BX6" s="13"/>
+      <c r="BY6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CA6" s="13"/>
+      <c r="CB6" s="14"/>
+      <c r="CC6" s="12">
         <v>45608</v>
       </c>
-      <c r="CD6" s="14"/>
-      <c r="CE6" s="14"/>
-      <c r="CF6" s="14"/>
-      <c r="CG6" s="14"/>
-      <c r="CH6" s="14"/>
-      <c r="CI6" s="14"/>
-      <c r="CJ6" s="14"/>
-      <c r="CK6" s="15"/>
-      <c r="CL6" s="13">
+      <c r="CD6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CF6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CH6" s="13"/>
+      <c r="CI6" s="13"/>
+      <c r="CJ6" s="13"/>
+      <c r="CK6" s="14"/>
+      <c r="CL6" s="12">
         <v>45609</v>
       </c>
-      <c r="CM6" s="14"/>
-      <c r="CN6" s="14"/>
-      <c r="CO6" s="14"/>
-      <c r="CP6" s="14"/>
-      <c r="CQ6" s="14"/>
-      <c r="CR6" s="14"/>
-      <c r="CS6" s="15"/>
-      <c r="CT6" s="13">
+      <c r="CM6" s="13"/>
+      <c r="CN6" s="13"/>
+      <c r="CO6" s="13"/>
+      <c r="CP6" s="13"/>
+      <c r="CQ6" s="13"/>
+      <c r="CR6" s="13"/>
+      <c r="CS6" s="14"/>
+      <c r="CT6" s="12">
         <v>45610</v>
       </c>
-      <c r="CU6" s="14"/>
-      <c r="CV6" s="14"/>
-      <c r="CW6" s="14"/>
-      <c r="CX6" s="14"/>
-      <c r="CY6" s="14"/>
-      <c r="CZ6" s="15"/>
-      <c r="DA6" s="13">
+      <c r="CU6" s="13"/>
+      <c r="CV6" s="13"/>
+      <c r="CW6" s="13"/>
+      <c r="CX6" s="13"/>
+      <c r="CY6" s="13"/>
+      <c r="CZ6" s="14"/>
+      <c r="DA6" s="12">
         <v>45611</v>
       </c>
-      <c r="DB6" s="14"/>
-      <c r="DC6" s="14"/>
-      <c r="DD6" s="14"/>
-      <c r="DE6" s="14"/>
-      <c r="DF6" s="14"/>
-      <c r="DG6" s="14"/>
-      <c r="DH6" s="15"/>
-      <c r="DI6" s="13">
+      <c r="DB6" s="13"/>
+      <c r="DC6" s="13"/>
+      <c r="DD6" s="13"/>
+      <c r="DE6" s="13"/>
+      <c r="DF6" s="13"/>
+      <c r="DG6" s="13"/>
+      <c r="DH6" s="14"/>
+      <c r="DI6" s="12">
         <v>45612</v>
       </c>
-      <c r="DJ6" s="14"/>
-      <c r="DK6" s="14"/>
-      <c r="DL6" s="14"/>
-      <c r="DM6" s="14"/>
-      <c r="DN6" s="15"/>
-      <c r="DO6" s="13">
+      <c r="DJ6" s="13"/>
+      <c r="DK6" s="13"/>
+      <c r="DL6" s="13"/>
+      <c r="DM6" s="13"/>
+      <c r="DN6" s="14"/>
+      <c r="DO6" s="12">
         <v>45613</v>
       </c>
-      <c r="DP6" s="14"/>
-      <c r="DQ6" s="14"/>
-      <c r="DR6" s="14"/>
-      <c r="DS6" s="14"/>
-      <c r="DT6" s="15"/>
-      <c r="DU6" s="13">
+      <c r="DP6" s="13"/>
+      <c r="DQ6" s="13"/>
+      <c r="DR6" s="13"/>
+      <c r="DS6" s="13"/>
+      <c r="DT6" s="14"/>
+      <c r="DU6" s="12">
         <v>45614</v>
       </c>
-      <c r="DV6" s="14"/>
-      <c r="DW6" s="14"/>
-      <c r="DX6" s="14"/>
-      <c r="DY6" s="14"/>
-      <c r="DZ6" s="15"/>
-      <c r="EA6" s="13">
+      <c r="DV6" s="13"/>
+      <c r="DW6" s="13"/>
+      <c r="DX6" s="13"/>
+      <c r="DY6" s="13"/>
+      <c r="DZ6" s="14"/>
+      <c r="EA6" s="12">
         <v>45615</v>
       </c>
-      <c r="EB6" s="14"/>
-      <c r="EC6" s="14"/>
-      <c r="ED6" s="14"/>
-      <c r="EE6" s="14"/>
-      <c r="EF6" s="15"/>
-      <c r="EG6" s="13">
+      <c r="EB6" s="13"/>
+      <c r="EC6" s="13"/>
+      <c r="ED6" s="13"/>
+      <c r="EE6" s="13"/>
+      <c r="EF6" s="14"/>
+      <c r="EG6" s="12">
         <v>45616</v>
       </c>
-      <c r="EH6" s="14"/>
-      <c r="EI6" s="14"/>
-      <c r="EJ6" s="14"/>
-      <c r="EK6" s="14"/>
-      <c r="EL6" s="15"/>
-      <c r="EM6" s="13">
+      <c r="EH6" s="13"/>
+      <c r="EI6" s="13"/>
+      <c r="EJ6" s="13"/>
+      <c r="EK6" s="13"/>
+      <c r="EL6" s="14"/>
+      <c r="EM6" s="12">
         <v>45617</v>
       </c>
-      <c r="EN6" s="14"/>
-      <c r="EO6" s="14"/>
-      <c r="EP6" s="14"/>
-      <c r="EQ6" s="14"/>
-      <c r="ER6" s="15"/>
-      <c r="ES6" s="13">
+      <c r="EN6" s="13"/>
+      <c r="EO6" s="13"/>
+      <c r="EP6" s="13"/>
+      <c r="EQ6" s="13"/>
+      <c r="ER6" s="14"/>
+      <c r="ES6" s="12">
         <v>45618</v>
       </c>
-      <c r="ET6" s="14"/>
-      <c r="EU6" s="14"/>
-      <c r="EV6" s="14"/>
-      <c r="EW6" s="14"/>
-      <c r="EX6" s="15"/>
+      <c r="ET6" s="13"/>
+      <c r="EU6" s="13"/>
+      <c r="EV6" s="13"/>
+      <c r="EW6" s="13"/>
+      <c r="EX6" s="14"/>
     </row>
     <row r="7" spans="1:154" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="P7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="Q7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="R7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="S7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="T7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="U7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="V7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="W7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="X7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AO7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AR7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AT7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AX7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="BA7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="BB7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="BC7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="BD7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="BF7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="BG7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="BH7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="BI7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="BJ7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="BK7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BL7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="BC7" s="2" t="s">
+      <c r="BM7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BN7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BE7" s="2" t="s">
+      <c r="BO7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BF7" s="2" t="s">
+      <c r="BP7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BG7" s="2" t="s">
+      <c r="BQ7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BH7" s="2" t="s">
+      <c r="BR7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="2" t="s">
+      <c r="BS7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BW7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CA7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CE7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CF7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CG7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CH7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CI7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CJ7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CK7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CL7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CN7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CO7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CP7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CR7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CS7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CT7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CU7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CV7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CW7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CX7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CY7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CZ7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DA7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DB7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DC7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DD7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DE7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DF7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DG7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DH7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DI7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DJ7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DK7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DL7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DM7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DN7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DO7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BJ7" s="2" t="s">
+      <c r="DP7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BK7" s="2" t="s">
+      <c r="DQ7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BL7" s="2" t="s">
+      <c r="DR7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BM7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BN7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BS7" s="2" t="s">
+      <c r="DS7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="DT7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="DU7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DV7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DW7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DX7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DY7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="DZ7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="EA7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BT7" s="2" t="s">
+      <c r="EB7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BU7" s="2" t="s">
+      <c r="EC7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BV7" s="2" t="s">
+      <c r="ED7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BW7" s="2" t="s">
+      <c r="EE7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BX7" s="2" t="s">
+      <c r="EF7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BY7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="BZ7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="CA7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="CB7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="CC7" s="2" t="s">
+      <c r="EG7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="CD7" s="2" t="s">
+      <c r="EH7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="CE7" s="2" t="s">
+      <c r="EI7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="CF7" s="2" t="s">
+      <c r="EJ7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="CG7" s="2" t="s">
+      <c r="EK7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="CH7" s="2" t="s">
+      <c r="EL7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="CI7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="CJ7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="CK7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="CL7" s="2" t="s">
+      <c r="EM7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="CM7" s="2" t="s">
+      <c r="EN7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="CN7" s="2" t="s">
+      <c r="EO7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="CO7" s="2" t="s">
+      <c r="EP7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="CP7" s="2" t="s">
+      <c r="EQ7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="CQ7" s="2" t="s">
+      <c r="ER7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="CR7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CS7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CT7" s="2" t="s">
+      <c r="ES7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="CU7" s="2" t="s">
+      <c r="ET7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="CV7" s="2" t="s">
+      <c r="EU7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="CW7" s="2" t="s">
+      <c r="EV7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="CX7" s="2" t="s">
+      <c r="EW7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="CY7" s="2" t="s">
+      <c r="EX7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="CZ7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="DA7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DB7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DC7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DD7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DE7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DF7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DG7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DH7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="DI7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="DJ7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="DK7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="DL7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="DM7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="DN7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="DO7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="DP7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="DQ7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="DR7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="DS7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="DT7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="DU7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DV7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DW7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DX7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DY7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="DZ7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="EA7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="EB7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="EC7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="ED7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="EE7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="EF7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="EG7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="EH7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="EI7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="EJ7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="EK7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="EL7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="EM7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="EN7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="EO7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="EP7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="EQ7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="ER7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="ES7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="ET7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="EU7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="EV7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="EW7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="EX7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:154" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -2213,7 +2207,7 @@
       </c>
     </row>
     <row r="9" spans="1:154" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2673,64 +2667,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:154" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
+    <mergeCell ref="BS6:CB6"/>
+    <mergeCell ref="I5:W5"/>
+    <mergeCell ref="AI6:AR6"/>
+    <mergeCell ref="AS6:BB6"/>
+    <mergeCell ref="BC6:BL6"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="O6:X6"/>
+    <mergeCell ref="Y6:AH6"/>
+    <mergeCell ref="BM6:BR6"/>
+    <mergeCell ref="CC6:CK6"/>
+    <mergeCell ref="CL6:CS6"/>
+    <mergeCell ref="CT6:CZ6"/>
+    <mergeCell ref="DA6:DH6"/>
+    <mergeCell ref="EG6:EL6"/>
     <mergeCell ref="ES6:EX6"/>
     <mergeCell ref="DI6:DN6"/>
     <mergeCell ref="DO6:DT6"/>
     <mergeCell ref="DU6:DZ6"/>
     <mergeCell ref="EA6:EF6"/>
     <mergeCell ref="EM6:ER6"/>
-    <mergeCell ref="CC6:CK6"/>
-    <mergeCell ref="CL6:CS6"/>
-    <mergeCell ref="CT6:CZ6"/>
-    <mergeCell ref="DA6:DH6"/>
-    <mergeCell ref="EG6:EL6"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="O6:X6"/>
-    <mergeCell ref="Y6:AH6"/>
-    <mergeCell ref="BM6:BR6"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="BS6:CB6"/>
-    <mergeCell ref="I5:W5"/>
-    <mergeCell ref="AI6:AR6"/>
-    <mergeCell ref="AS6:BB6"/>
-    <mergeCell ref="BC6:BL6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.35" right="0.2" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
